--- a/phase4/搜索经验提取实验.xlsx
+++ b/phase4/搜索经验提取实验.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33180" yWindow="720" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="answer12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="413">
   <si>
     <t>qiushaojie</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -935,6 +935,569 @@
   <si>
     <t>zhaomingqing</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>task3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user behavior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web video service</t>
+  </si>
+  <si>
+    <t>web video service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revisit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别</t>
+    <rPh sb="0" eb="1">
+      <t>shi bie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web video charge</t>
+  </si>
+  <si>
+    <t>web video charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <rPh sb="0" eb="1">
+      <t>an quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web service loading time</t>
+  </si>
+  <si>
+    <t>web video service quality re click</t>
+  </si>
+  <si>
+    <t>web video service quality maintain</t>
+  </si>
+  <si>
+    <t>how long are users consuming a service</t>
+  </si>
+  <si>
+    <t>缓冲时间对用户观看视频的影响</t>
+  </si>
+  <si>
+    <t>web video provider click</t>
+  </si>
+  <si>
+    <t>video provider click</t>
+  </si>
+  <si>
+    <t>web video service interrupt</t>
+  </si>
+  <si>
+    <t>users give up online video when it loaded over 2 seconds</t>
+  </si>
+  <si>
+    <t>when are they likely to abandon it due to quality problems?</t>
+  </si>
+  <si>
+    <t>online video loading time</t>
+  </si>
+  <si>
+    <t>video service loading time</t>
+  </si>
+  <si>
+    <t>revisit analyze</t>
+  </si>
+  <si>
+    <t>web video provider visit</t>
+  </si>
+  <si>
+    <t>用户放弃视频 缓冲时间</t>
+  </si>
+  <si>
+    <t>web video provider service quality</t>
+  </si>
+  <si>
+    <t>web video pay</t>
+  </si>
+  <si>
+    <t>web viedo charge</t>
+  </si>
+  <si>
+    <t>web video pay per view</t>
+  </si>
+  <si>
+    <t>网络视频类型分布</t>
+  </si>
+  <si>
+    <t>用户观看网络视频类型</t>
+  </si>
+  <si>
+    <t>video category</t>
+  </si>
+  <si>
+    <t>online video category aspect user behavior</t>
+  </si>
+  <si>
+    <t>user behavior web video</t>
+  </si>
+  <si>
+    <t>user abandon an online video</t>
+  </si>
+  <si>
+    <t>用户观看网络视频时的行为</t>
+  </si>
+  <si>
+    <t>用户观看网络视频时的点击行为</t>
+  </si>
+  <si>
+    <t>user behavior online video content</t>
+  </si>
+  <si>
+    <t>user behavior delivery of video content</t>
+  </si>
+  <si>
+    <t>user behavior online video</t>
+  </si>
+  <si>
+    <t>网络视频眼动行为研究</t>
+  </si>
+  <si>
+    <t>user behavior onlinevideo</t>
+  </si>
+  <si>
+    <t>user behavior abandon online video</t>
+  </si>
+  <si>
+    <t>网络视频点击行为研究</t>
+  </si>
+  <si>
+    <t>short-term user behavior in web video services</t>
+  </si>
+  <si>
+    <t>user behavior for online video</t>
+  </si>
+  <si>
+    <t>video recommendation based on user behavior</t>
+  </si>
+  <si>
+    <t>online video loading time user behavior</t>
+  </si>
+  <si>
+    <t>online video quality re click</t>
+  </si>
+  <si>
+    <t>online video quality revisit</t>
+  </si>
+  <si>
+    <t>video service quality revisit</t>
+  </si>
+  <si>
+    <t>relationship video quality revisit</t>
+  </si>
+  <si>
+    <t>video quality assesment</t>
+  </si>
+  <si>
+    <t>quality affects online video</t>
+  </si>
+  <si>
+    <t>web video service quality revisit</t>
+  </si>
+  <si>
+    <t>video quality visit ratio</t>
+  </si>
+  <si>
+    <t>video service quality</t>
+  </si>
+  <si>
+    <t>web video service quality</t>
+  </si>
+  <si>
+    <t>web video service quality maintainous</t>
+  </si>
+  <si>
+    <t>video quality</t>
+  </si>
+  <si>
+    <t>quality effects of online video</t>
+  </si>
+  <si>
+    <t>音频质量分析</t>
+  </si>
+  <si>
+    <t>视频编码</t>
+  </si>
+  <si>
+    <t>网络传输管理</t>
+  </si>
+  <si>
+    <t>网络视频监控</t>
+  </si>
+  <si>
+    <t>网络视频传输</t>
+  </si>
+  <si>
+    <t>author:(wolf, stephen)</t>
+  </si>
+  <si>
+    <t>网络视频</t>
+  </si>
+  <si>
+    <t>网络视频点播</t>
+  </si>
+  <si>
+    <t>音频质量</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>网络视频应用</t>
+  </si>
+  <si>
+    <t>internet vedio</t>
+  </si>
+  <si>
+    <t>网络视频服务器</t>
+  </si>
+  <si>
+    <t>网络视频技术</t>
+  </si>
+  <si>
+    <t>网络视频系统</t>
+  </si>
+  <si>
+    <t>图像识别</t>
+  </si>
+  <si>
+    <t>网络视频识别</t>
+  </si>
+  <si>
+    <t>网络视频内容识别</t>
+  </si>
+  <si>
+    <t>网络视频过滤</t>
+  </si>
+  <si>
+    <t>web-based video safety</t>
+  </si>
+  <si>
+    <t>web video safety</t>
+  </si>
+  <si>
+    <t>web education</t>
+  </si>
+  <si>
+    <t>video website revisit ratio</t>
+  </si>
+  <si>
+    <t>revisit video provider</t>
+  </si>
+  <si>
+    <t>video revisit analysis</t>
+  </si>
+  <si>
+    <t>video quality revisit rate</t>
+  </si>
+  <si>
+    <t>video website revisit rate</t>
+  </si>
+  <si>
+    <t>revisit analysis</t>
+  </si>
+  <si>
+    <t>video quality revisit</t>
+  </si>
+  <si>
+    <t>video website revisit</t>
+  </si>
+  <si>
+    <t>video quality revisit ratio</t>
+  </si>
+  <si>
+    <t>video provider revisit</t>
+  </si>
+  <si>
+    <t>video website quality revisit</t>
+  </si>
+  <si>
+    <t>task4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video chat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior / misbehavior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>active networks</t>
+  </si>
+  <si>
+    <t>实时视频传输</t>
+  </si>
+  <si>
+    <t>聊天传播延迟</t>
+  </si>
+  <si>
+    <t>视频聊天传播延迟</t>
+  </si>
+  <si>
+    <t>video delay</t>
+  </si>
+  <si>
+    <t>real-time multimedia</t>
+  </si>
+  <si>
+    <t>热门视频聊天系统</t>
+  </si>
+  <si>
+    <t>视频聊天</t>
+  </si>
+  <si>
+    <t>'chatting' 'content' video</t>
+  </si>
+  <si>
+    <t>视频聊天 不清楚</t>
+  </si>
+  <si>
+    <t>vedio ‘charting’</t>
+  </si>
+  <si>
+    <t>'video chatting' content</t>
+  </si>
+  <si>
+    <t>online video chat</t>
+  </si>
+  <si>
+    <t>'chating' 'content'</t>
+  </si>
+  <si>
+    <t>online chat</t>
+  </si>
+  <si>
+    <t>'chat' 'content' video</t>
+  </si>
+  <si>
+    <t>chat online</t>
+  </si>
+  <si>
+    <t>content quality of video chat</t>
+  </si>
+  <si>
+    <t>quality-of-service'video' 'chat' 'content'</t>
+  </si>
+  <si>
+    <t>'chatting' 'content'</t>
+  </si>
+  <si>
+    <t>视频聊天系统</t>
+  </si>
+  <si>
+    <t>'chatting' 'content' video gni</t>
+  </si>
+  <si>
+    <t>视频聊天系统都有哪些</t>
+  </si>
+  <si>
+    <t>真人视频聊天 图像</t>
+  </si>
+  <si>
+    <t>'chatting' content videovideo chat</t>
+  </si>
+  <si>
+    <t>camera chat</t>
+  </si>
+  <si>
+    <t>'video chatting' 'content''video' 'chating' 'content'</t>
+  </si>
+  <si>
+    <t>video char quality</t>
+  </si>
+  <si>
+    <t>视频聊天 高清</t>
+  </si>
+  <si>
+    <t>behavior online chat</t>
+  </si>
+  <si>
+    <t>在线视频聊天</t>
+  </si>
+  <si>
+    <t>在线视频聊天 flash</t>
+  </si>
+  <si>
+    <t>’vedio’ ‘chat’ ‘content’</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>'video' 'chat' 'content' ‘gnu’</t>
+  </si>
+  <si>
+    <t>’vedio’ ‘chating’ ‘content’</t>
+  </si>
+  <si>
+    <t>online chat misbehavoir</t>
+  </si>
+  <si>
+    <t>video chat bad behaviors</t>
+  </si>
+  <si>
+    <t>online chat bad behavior</t>
+  </si>
+  <si>
+    <t>misbehavior detection online</t>
+  </si>
+  <si>
+    <t>online chat misbehavior</t>
+  </si>
+  <si>
+    <t>flasher detection video chat</t>
+  </si>
+  <si>
+    <t>flasher detection</t>
+  </si>
+  <si>
+    <t>behavior vedio chat</t>
+  </si>
+  <si>
+    <t>vedio chat behavior</t>
+  </si>
+  <si>
+    <t>video chat behavior</t>
+  </si>
+  <si>
+    <t>video chat behaviors</t>
+  </si>
+  <si>
+    <t>behavior video chat</t>
+  </si>
+  <si>
+    <t>online chat behavior</t>
+  </si>
+  <si>
+    <t>image-based classification</t>
+  </si>
+  <si>
+    <t>极限学习机 人脸识别</t>
+  </si>
+  <si>
+    <t>最大池化方法</t>
+  </si>
+  <si>
+    <t>predict behavior video chat</t>
+  </si>
+  <si>
+    <t>feature recognition</t>
+  </si>
+  <si>
+    <t>在线视频聊天 动画检测</t>
+  </si>
+  <si>
+    <t>flash图片识别</t>
+  </si>
+  <si>
+    <t>neural-network online video chat</t>
+  </si>
+  <si>
+    <t>image-based classification online chat</t>
+  </si>
+  <si>
+    <t>packet-switched networks</t>
+  </si>
+  <si>
+    <t>online chat behavior detect</t>
+  </si>
+  <si>
+    <t>video chat behavior detect</t>
+  </si>
+  <si>
+    <t>fine-grained cascaded (fgc) classification</t>
+  </si>
+  <si>
+    <t>lbp 人脸识别</t>
+  </si>
+  <si>
+    <t>在线视频聊天 人脸识别</t>
+  </si>
+  <si>
+    <t>多通道gabor滤波</t>
+  </si>
+  <si>
+    <t>并行 卷积神经网络</t>
+  </si>
+  <si>
+    <t>深度学习 特征提取</t>
+  </si>
+  <si>
+    <t>卷积神经网络 优化</t>
+  </si>
+  <si>
+    <t>flasher检测</t>
+  </si>
+  <si>
+    <t>flash检测</t>
+  </si>
+  <si>
+    <t>image detection</t>
+  </si>
+  <si>
+    <t>online video chat feature</t>
+  </si>
+  <si>
+    <t>flasher detection video cht</t>
+  </si>
+  <si>
+    <t>卷积神经网络 优化 人脸</t>
+  </si>
+  <si>
+    <t>l-gem</t>
+  </si>
+  <si>
+    <t>cnn 卷积神经网络 人脸 特征</t>
+  </si>
+  <si>
+    <t>视频 flash图像 区分</t>
+  </si>
+  <si>
+    <t>并行 卷积神经网络 人脸</t>
+  </si>
+  <si>
+    <t>user detection online video chat</t>
   </si>
 </sst>
 </file>
@@ -1033,15 +1596,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,6 +1622,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,9 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U12"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2141,12 +2702,747 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>354</v>
+      </c>
+      <c r="D47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2156,7 +3452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2180,75 +3476,75 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>6</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>0.73170731707317005</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>0.74318507890961205</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>0.73744619799139099</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>7</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>0.67688378033205598</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>0.67594189016602801</v>
       </c>
       <c r="K4" t="s">
@@ -2256,31 +3552,31 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>0.46938775510204001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.96428571428571397</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>0.71683673469387699</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>0.51515151515151503</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>0.88888888888888795</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>0.70202020202020199</v>
       </c>
       <c r="K5" t="s">
@@ -2288,31 +3584,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0.25</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>0.92682926829268297</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>0.58841463414634099</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>10</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>0.92857142857142805</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>0.63095238095238004</v>
       </c>
       <c r="K6" t="s">
@@ -2320,31 +3616,31 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>0.54285714285714204</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>0.87244897959183598</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>0.70765306122448901</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>10</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>0.52941176470588203</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.75700934579439205</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>0.64321055525013704</v>
       </c>
       <c r="K7" t="s">
@@ -2352,31 +3648,31 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>0.55128205128205099</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>0.74364102564102497</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>0.52272727272727204</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>0.76243093922651906</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>0.64257910597689605</v>
       </c>
       <c r="K8" t="s">
@@ -2384,31 +3680,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>0.512820512820512</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.96875</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>0.74078525641025605</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>0.64516129032257996</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>0.96326530612244898</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>0.80421329822251397</v>
       </c>
       <c r="K9" t="s">
@@ -2416,31 +3712,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0.5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.75899280575539496</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>0.62949640287769704</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>9</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>0.34375</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>0.72540983606557297</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>0.53457991803278604</v>
       </c>
       <c r="K10" t="s">
@@ -2448,31 +3744,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0.37333333333333302</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.82471910112359503</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>0.59902621722846405</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>9</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>0.34285714285714203</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>0.77333333333333298</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="10">
         <v>0.55809523809523798</v>
       </c>
       <c r="K11" t="s">
@@ -2493,46 +3789,46 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2540,11 +3836,11 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2553,11 +3849,11 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2566,11 +3862,11 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2579,11 +3875,11 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2592,11 +3888,11 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2605,11 +3901,11 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2618,24 +3914,24 @@
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>

--- a/phase4/搜索经验提取实验.xlsx
+++ b/phase4/搜索经验提取实验.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="answer12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="421">
   <si>
     <t>qiushaojie</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1498,15 +1498,48 @@
   </si>
   <si>
     <t>user detection online video chat</t>
+  </si>
+  <si>
+    <t>lipengfei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuyunfei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaomingqing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhusichuang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liudali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinenhui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaohaitong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1583,26 +1616,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1617,10 +1643,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,7 +1652,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1912,7 +1964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2272,7 +2326,7 @@
       <c r="T7" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2704,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3452,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3476,75 +3530,75 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.73170731707317005</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.74318507890961205</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>0.73744619799139099</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>0.67688378033205598</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>0.67594189016602801</v>
       </c>
       <c r="K4" t="s">
@@ -3552,31 +3606,31 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0.46938775510204001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>0.96428571428571397</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>0.71683673469387699</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0.51515151515151503</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>0.88888888888888795</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>0.70202020202020199</v>
       </c>
       <c r="K5" t="s">
@@ -3584,31 +3638,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>0.25</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>0.92682926829268297</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>0.58841463414634099</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>10</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>0.92857142857142805</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>0.63095238095238004</v>
       </c>
       <c r="K6" t="s">
@@ -3616,31 +3670,31 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>0.54285714285714204</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>0.87244897959183598</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>0.70765306122448901</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.52941176470588203</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.75700934579439205</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>0.64321055525013704</v>
       </c>
       <c r="K7" t="s">
@@ -3648,31 +3702,31 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.55128205128205099</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>0.74364102564102497</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>0.52272727272727204</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>0.76243093922651906</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>0.64257910597689605</v>
       </c>
       <c r="K8" t="s">
@@ -3680,31 +3734,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>0.512820512820512</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>0.96875</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>0.74078525641025605</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>10</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>0.64516129032257996</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0.96326530612244898</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <v>0.80421329822251397</v>
       </c>
       <c r="K9" t="s">
@@ -3712,31 +3766,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0.5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>0.75899280575539496</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>0.62949640287769704</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>0.34375</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.72540983606557297</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>0.53457991803278604</v>
       </c>
       <c r="K10" t="s">
@@ -3744,31 +3798,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>0.37333333333333302</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>0.82471910112359503</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>0.59902621722846405</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>9</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>0.34285714285714203</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>0.77333333333333298</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>0.55809523809523798</v>
       </c>
       <c r="K11" t="s">
@@ -3789,152 +3843,304 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.54255319148936099</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.37956204379561997</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.46105761764249098</v>
+      </c>
+      <c r="F17" s="19">
+        <v>5</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.35519125683060099</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0.542178961748633</v>
+      </c>
+      <c r="K17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="C18" s="18">
+        <v>0.404371584699453</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.61290007806401203</v>
+      </c>
+      <c r="F18" s="8">
+        <v>7</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.61403508771929804</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0.69590643274853803</v>
+      </c>
+      <c r="K18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.65573770491803196</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.84782608695652095</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.75178189593727696</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.72777777777777697</v>
+      </c>
+      <c r="K19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.35555555555555501</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.35555555555555501</v>
+      </c>
+      <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="G20" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.61290322580645096</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.706451612903225</v>
+      </c>
+      <c r="K20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.32653061224489699</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.66326530612244805</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.938271604938271</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.69830246913580196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="B22" s="8">
         <v>7</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="C22" s="18">
+        <v>0.29411764705882298</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.43114973262032003</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="K22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.42580645161290298</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.42580645161290298</v>
+      </c>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.53381642512077299</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0.649261153736857</v>
+      </c>
+      <c r="K23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.26283987915407803</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.71940298507462597</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.491121432114352</v>
+      </c>
+      <c r="F24" s="9">
+        <v>7</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0.56336161187698797</v>
+      </c>
+      <c r="K24" t="s">
+        <v>415</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/phase4/搜索经验提取实验.xlsx
+++ b/phase4/搜索经验提取实验.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="answer12" sheetId="2" r:id="rId1"/>
     <sheet name="answer34" sheetId="3" r:id="rId2"/>
     <sheet name="工作表4" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="421">
   <si>
     <t>qiushaojie</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1616,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1658,9 +1659,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,6 +1681,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3506,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3530,24 +3564,24 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>221</v>
       </c>
@@ -3843,24 +3877,24 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>221</v>
       </c>
@@ -3890,28 +3924,28 @@
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>4</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>0.54255319148936099</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>0.37956204379561997</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>0.46105761764249098</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>5</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.72916666666666596</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.35519125683060099</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>0.542178961748633</v>
       </c>
       <c r="K17" t="s">
@@ -3925,25 +3959,25 @@
       <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>0.404371584699453</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>0.82142857142857095</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>0.61290007806401203</v>
       </c>
       <c r="F18" s="8">
         <v>7</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>0.61403508771929804</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.77777777777777701</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>0.69590643274853803</v>
       </c>
       <c r="K18" t="s">
@@ -3957,25 +3991,25 @@
       <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>0.65573770491803196</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>0.84782608695652095</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0.75178189593727696</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>0.78888888888888797</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>0.72777777777777697</v>
       </c>
       <c r="K19" t="s">
@@ -3989,25 +4023,25 @@
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>0.35555555555555501</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>0.35555555555555501</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>0.8</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>0.61290322580645096</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>0.706451612903225</v>
       </c>
       <c r="K20" t="s">
@@ -4021,25 +4055,25 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>0.32653061224489699</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>0.66326530612244805</v>
       </c>
       <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>0.45833333333333298</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>0.938271604938271</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>0.69830246913580196</v>
       </c>
       <c r="K21" t="s">
@@ -4053,25 +4087,25 @@
       <c r="B22" s="8">
         <v>7</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>0.29411764705882298</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>0.56818181818181801</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>0.43114973262032003</v>
       </c>
       <c r="F22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>0.77777777777777701</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>0.625</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>0.70138888888888795</v>
       </c>
       <c r="K22" t="s">
@@ -4085,25 +4119,25 @@
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>0.42580645161290298</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>0.42580645161290298</v>
       </c>
       <c r="F23" s="8">
         <v>10</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>0.76470588235294101</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>0.53381642512077299</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>0.649261153736857</v>
       </c>
       <c r="K23" t="s">
@@ -4117,25 +4151,25 @@
       <c r="B24" s="9">
         <v>3</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>0.26283987915407803</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>0.71940298507462597</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>0.491121432114352</v>
       </c>
       <c r="F24" s="9">
         <v>7</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>0.76086956521739102</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>0.36585365853658502</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>0.56336161187698797</v>
       </c>
       <c r="K24" t="s">
@@ -4154,4 +4188,850 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28">
+        <v>6</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.73170731707317005</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.74318507890961205</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.73744619799139099</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.67688378033205598</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.67594189016602801</v>
+      </c>
+      <c r="K4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.44378698224851998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.64713896457765596</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.54546297341308803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.46938775510204001</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.71683673469387699</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.70202020202020199</v>
+      </c>
+      <c r="K6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.70202020202020199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.58841463414634099</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.63095238095238004</v>
+      </c>
+      <c r="K8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.53195488721804496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.54285714285714204</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.87244897959183598</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.70765306122448901</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.75700934579439205</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.64321055525013704</v>
+      </c>
+      <c r="K10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="8">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.32258064516128998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.745</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.53379032258064496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.55128205128205099</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.74364102564102497</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.52272727272727204</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.76243093922651906</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.64257910597689605</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.25170068027210801</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.72200772200772201</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.48685420113991501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27">
+        <v>6</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.96875</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.74078525641025605</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.64516129032257996</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.96326530612244898</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.80421329822251397</v>
+      </c>
+      <c r="K14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="8">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.95338983050847403</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0.70169491525423699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>7</v>
+      </c>
+      <c r="B16" s="27">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.52173913043478204</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.76173285198555896</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.641735991210171</v>
+      </c>
+      <c r="F16" s="8">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.34375</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.72540983606557297</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.53457991803278604</v>
+      </c>
+      <c r="K16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.72314049586776796</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.52333495381623696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27">
+        <v>5</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.37333333333333302</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.82471910112359503</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.59902621722846405</v>
+      </c>
+      <c r="F18" s="8">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.34285714285714203</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.77333333333333298</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.55809523809523798</v>
+      </c>
+      <c r="K18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.29545454545454503</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.77537796976241902</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.53541625760848199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
+        <v>4</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.54255319148936099</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.37956204379561997</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.46105761764249098</v>
+      </c>
+      <c r="F25" s="18">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.35519125683060099</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.542178961748633</v>
+      </c>
+      <c r="K25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.404371584699453</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.61290007806401203</v>
+      </c>
+      <c r="F26" s="8">
+        <v>7</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.61403508771929804</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.69590643274853803</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.65573770491803196</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.84782608695652095</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.75178189593727696</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0.72777777777777697</v>
+      </c>
+      <c r="K27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.35555555555555501</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.35555555555555501</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.61290322580645096</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.706451612903225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.32653061224489699</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.66326530612244805</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.938271604938271</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.69830246913580196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.29411764705882298</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.43114973262032003</v>
+      </c>
+      <c r="F30" s="8">
+        <v>10</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.42580645161290298</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.42580645161290298</v>
+      </c>
+      <c r="F31" s="8">
+        <v>10</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0.53381642512077299</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.649261153736857</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>8</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.26283987915407803</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.71940298507462597</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.491121432114352</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.36585365853658502</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0.56336161187698797</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/phase4/搜索经验提取实验.xlsx
+++ b/phase4/搜索经验提取实验.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="423">
   <si>
     <t>qiushaojie</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1530,6 +1530,35 @@
   </si>
   <si>
     <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于子任务划分的主题经验提取算法</t>
+    <rPh sb="0" eb="1">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi ren wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu ti jing yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti qu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>suan fa</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1542,7 +1571,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1562,6 +1591,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1614,10 +1661,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1662,9 +1733,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,6 +1751,12 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,13 +1772,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1713,15 +1784,48 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3564,24 +3668,24 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>221</v>
       </c>
@@ -3877,24 +3981,24 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="11" t="s">
         <v>221</v>
       </c>
@@ -3924,28 +4028,28 @@
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>0.54255319148936099</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>0.37956204379561997</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>0.46105761764249098</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>5</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>0.72916666666666596</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>0.35519125683060099</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0.542178961748633</v>
       </c>
       <c r="K17" t="s">
@@ -3959,25 +4063,25 @@
       <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.404371584699453</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>0.82142857142857095</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>0.61290007806401203</v>
       </c>
       <c r="F18" s="8">
         <v>7</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>0.61403508771929804</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>0.77777777777777701</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>0.69590643274853803</v>
       </c>
       <c r="K18" t="s">
@@ -3991,25 +4095,25 @@
       <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>0.65573770491803196</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>0.84782608695652095</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>0.75178189593727696</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>0.78888888888888797</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>0.72777777777777697</v>
       </c>
       <c r="K19" t="s">
@@ -4023,25 +4127,25 @@
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>0.35555555555555501</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>0.35555555555555501</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>0.8</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>0.61290322580645096</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>0.706451612903225</v>
       </c>
       <c r="K20" t="s">
@@ -4055,25 +4159,25 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>0.32653061224489699</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>0.66326530612244805</v>
       </c>
       <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>0.45833333333333298</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>0.938271604938271</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>0.69830246913580196</v>
       </c>
       <c r="K21" t="s">
@@ -4087,25 +4191,25 @@
       <c r="B22" s="8">
         <v>7</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>0.29411764705882298</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>0.56818181818181801</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>0.43114973262032003</v>
       </c>
       <c r="F22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>0.77777777777777701</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>0.625</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>0.70138888888888795</v>
       </c>
       <c r="K22" t="s">
@@ -4119,25 +4223,25 @@
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>0.42580645161290298</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>0.42580645161290298</v>
       </c>
       <c r="F23" s="8">
         <v>10</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>0.76470588235294101</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>0.53381642512077299</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <v>0.649261153736857</v>
       </c>
       <c r="K23" t="s">
@@ -4157,7 +4261,7 @@
       <c r="D24" s="15">
         <v>0.71940298507462597</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>0.491121432114352</v>
       </c>
       <c r="F24" s="9">
@@ -4169,7 +4273,7 @@
       <c r="H24" s="15">
         <v>0.36585365853658502</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>0.56336161187698797</v>
       </c>
       <c r="K24" t="s">
@@ -4192,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4218,24 +4322,24 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="14" t="s">
         <v>221</v>
       </c>
@@ -4262,19 +4366,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="35">
         <v>6</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="36">
         <v>0.73170731707317005</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="36">
         <v>0.74318507890961205</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="36">
         <v>0.73744619799139099</v>
       </c>
       <c r="F4" s="8">
@@ -4294,8 +4398,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -4313,10 +4417,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="28">
         <v>3</v>
       </c>
       <c r="C6" s="29">
@@ -4345,8 +4449,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -4364,10 +4468,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="28">
         <v>7</v>
       </c>
       <c r="C8" s="29">
@@ -4376,7 +4480,7 @@
       <c r="D8" s="29">
         <v>0.92682926829268297</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="30">
         <v>0.58841463414634099</v>
       </c>
       <c r="F8" s="8">
@@ -4396,11 +4500,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="8">
         <v>7</v>
       </c>
@@ -4410,15 +4514,15 @@
       <c r="H9" s="6">
         <v>0.92105263157894701</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="23">
         <v>0.53195488721804496</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>6</v>
       </c>
       <c r="C10" s="29">
@@ -4447,8 +4551,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -4466,10 +4570,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <v>3</v>
       </c>
       <c r="C12" s="29">
@@ -4498,8 +4602,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -4517,10 +4621,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="28">
         <v>6</v>
       </c>
       <c r="C14" s="29">
@@ -4529,7 +4633,7 @@
       <c r="D14" s="29">
         <v>0.96875</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="30">
         <v>0.74078525641025605</v>
       </c>
       <c r="F14" s="8">
@@ -4549,11 +4653,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="8">
         <v>6</v>
       </c>
@@ -4563,15 +4667,15 @@
       <c r="H15" s="6">
         <v>0.95338983050847403</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="23">
         <v>0.70169491525423699</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="25">
         <v>7</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="28">
         <v>10</v>
       </c>
       <c r="C16" s="29">
@@ -4600,8 +4704,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4619,10 +4723,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="28">
         <v>5</v>
       </c>
       <c r="C18" s="29">
@@ -4651,7 +4755,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -4683,24 +4787,24 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
+      <c r="B23" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="13" t="s">
         <v>221</v>
       </c>
@@ -4713,45 +4817,45 @@
       <c r="E24" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="22" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="24">
         <v>1</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="35">
         <v>4</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="36">
         <v>0.54255319148936099</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="36">
         <v>0.37956204379561997</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="37">
         <v>0.46105761764249098</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="8">
         <v>5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.72916666666666596</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.35519125683060099</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="10">
         <v>0.542178961748633</v>
       </c>
       <c r="K25" t="s">
@@ -4759,266 +4863,383 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.337016574585635</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.49850828729281699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="28">
         <v>3</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C27" s="29">
         <v>0.404371584699453</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="29">
         <v>0.82142857142857095</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E27" s="30">
         <v>0.61290007806401203</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>7</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="6">
         <v>0.61403508771929804</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="6">
         <v>0.77777777777777701</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I27" s="10">
         <v>0.69590643274853803</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="8">
+      <c r="G28" s="6">
+        <v>0.338028169014084</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.75767918088737196</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.54785367495072801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="C27" s="17">
+      <c r="B29" s="28">
+        <v>3</v>
+      </c>
+      <c r="C29" s="29">
         <v>0.65573770491803196</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="29">
         <v>0.84782608695652095</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E29" s="34">
         <v>0.75178189593727696</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F29" s="8">
         <v>5</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G29" s="6">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H29" s="6">
         <v>0.78888888888888797</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I29" s="23">
         <v>0.72777777777777697</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.72058823529411697</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0.55260180995475106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
         <v>4</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B31" s="28">
         <v>1</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C31" s="29">
         <v>0.35555555555555501</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D31" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E31" s="30">
         <v>0.35555555555555501</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F31" s="8">
         <v>5</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G31" s="6">
         <v>0.8</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H31" s="6">
         <v>0.61290322580645096</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I31" s="10">
         <v>0.706451612903225</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
         <v>5</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B33" s="28">
         <v>2</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C33" s="29">
         <v>0.32653061224489699</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D33" s="29">
         <v>1</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E33" s="30">
         <v>0.66326530612244805</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F33" s="8">
         <v>4</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G33" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H33" s="6">
         <v>0.938271604938271</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I33" s="10">
         <v>0.69830246913580196</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.20408163265306101</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.54846938775510201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
         <v>6</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B35" s="28">
         <v>7</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C35" s="29">
         <v>0.29411764705882298</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D35" s="29">
         <v>0.56818181818181801</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E35" s="30">
         <v>0.43114973262032003</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F35" s="8">
         <v>10</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G35" s="6">
         <v>0.77777777777777701</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H35" s="6">
         <v>0.625</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I35" s="10">
         <v>0.70138888888888795</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K35" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="8">
         <v>7</v>
       </c>
-      <c r="B31" s="8">
+      <c r="G36" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.62105263157894697</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.66052631578947296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>7</v>
+      </c>
+      <c r="B37" s="28">
         <v>1</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C37" s="29">
         <v>0.42580645161290298</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D37" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E37" s="30">
         <v>0.42580645161290298</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F37" s="8">
         <v>10</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G37" s="6">
         <v>0.76470588235294101</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H37" s="6">
         <v>0.53381642512077299</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I37" s="10">
         <v>0.649261153736857</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
         <v>8</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B39" s="28">
         <v>3</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C39" s="29">
         <v>0.26283987915407803</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D39" s="29">
         <v>0.71940298507462597</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E39" s="30">
         <v>0.491121432114352</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F39" s="8">
         <v>7</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G39" s="6">
         <v>0.76086956521739102</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H39" s="6">
         <v>0.36585365853658502</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I39" s="10">
         <v>0.56336161187698797</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K39" t="s">
         <v>233</v>
       </c>
     </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="9">
+        <v>3</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.64049586776859502</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.34198113207547098</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.491238499922033</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
+  <mergeCells count="86">
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
@@ -5030,8 +5251,84 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>